--- a/pred_ohlcv/54_21/2020-01-15 XSR ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-15 XSR ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-4034999.026200001</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-3901322.4427</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-3909689.120000001</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-3920533.049200001</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-3930485.049200001</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-3930485.049200001</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-3930485.049200001</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-4258786.740600001</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-4258786.740600001</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-4258269.734500001</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-3985235.228100001</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-4302073.907000002</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-4533182.923600001</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-4532182.923600001</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-4746510.022600002</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-4455170.386800001</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-4208388.608900001</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-4207888.608900001</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-4453255.653100002</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-4453255.653100002</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-4716893.158800001</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-4717046.729600001</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-4956935.377400002</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-4956435.377400002</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-5202210.471200001</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-5036037.998900002</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-4724178.628500002</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-5373784.031600001</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-5617319.794800001</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-6288053.204200001</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-6595311.959500001</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-6812404.495800001</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-7169018.6109</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-6836912.5762</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-6272628.928900001</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-6138552.257300001</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-6138914.5025</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-6904146.4889</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-7615046.1423</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-7338839.982700001</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-7646741.445600001</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-7818026.254600001</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-7917645.613300001</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-8262556.483400001</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-8030092.488500001</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-7870238.482100001</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-8117161.077000001</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-8116661.077000001</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-8386635.179500001</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-8654775.042000001</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-8455329.807000002</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-8455249.807000002</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-8934140.387100002</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-8735475.383100001</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-8971283.889900001</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-8971203.889900001</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-9127508.126800001</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-8944727.033300001</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-8612956.242800001</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-8333466.632800001</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-8334400.334000001</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-8704330.668000001</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-8787556.310500002</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-8821748.941500003</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-8821748.941500003</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-8978325.610600002</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-9307452.956200002</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-9484107.204800002</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-9484107.204800002</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-10592655.4255</v>
       </c>
       <c r="H223">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-10592544.4255</v>
       </c>
       <c r="H224">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-10801030.4715</v>
       </c>
       <c r="H225">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>-10800860.4715</v>
       </c>
       <c r="H226">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-10448507.5286</v>
       </c>
       <c r="H227">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-10780515.6975</v>
       </c>
       <c r="H228">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-11114931.3181</v>
       </c>
       <c r="H229">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-11124909.6454</v>
       </c>
       <c r="H230">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-11124909.6454</v>
       </c>
       <c r="H231">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>-11124909.6454</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-11131555.9394</v>
       </c>
       <c r="H233">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-11375976.209</v>
       </c>
       <c r="H234">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-11083750.6116</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-11083750.6116</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-11257310.5401</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-11495178.2502</v>
       </c>
       <c r="H241">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>-20615145.78072824</v>
       </c>
       <c r="H423">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>-20593018.80812824</v>
       </c>
       <c r="H424">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>-20736959.10162824</v>
       </c>
       <c r="H425">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>-20365695.03222824</v>
       </c>
       <c r="H427">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>-20423810.52902824</v>
       </c>
       <c r="H428">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>-20083669.96792824</v>
       </c>
       <c r="H429">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>-20135299.25942824</v>
       </c>
       <c r="H430">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>-19783183.60592823</v>
       </c>
       <c r="H431">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>-19783183.60592823</v>
       </c>
       <c r="H432">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>-19783183.60592823</v>
       </c>
       <c r="H433">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>-19495688.59662823</v>
       </c>
       <c r="H434">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>-19328587.10782823</v>
       </c>
       <c r="H441">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>-18847587.34702823</v>
       </c>
       <c r="H443">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>-18845120.51822823</v>
       </c>
       <c r="H444">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>-19223720.72542823</v>
       </c>
       <c r="H445">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>-19139097.02632823</v>
       </c>
       <c r="H446">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>-17611603.74303685</v>
       </c>
       <c r="H447">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>-17607695.62843685</v>
       </c>
       <c r="H448">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>-17939360.33043685</v>
       </c>
       <c r="H449">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>-17670778.06353685</v>
       </c>
       <c r="H450">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>-17719451.45713685</v>
       </c>
       <c r="H451">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>-17532576.94963685</v>
       </c>
       <c r="H452">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>-17304891.57263685</v>
       </c>
       <c r="H453">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>-17305543.81113685</v>
       </c>
       <c r="H454">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>-16947680.83553685</v>
       </c>
       <c r="H455">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>-16741251.87843685</v>
       </c>
       <c r="H456">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>-16741427.53293685</v>
       </c>
       <c r="H457">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>-16434591.73893685</v>
       </c>
       <c r="H458">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>-16434591.73893685</v>
       </c>
       <c r="H459">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>-16434106.73893685</v>
       </c>
       <c r="H460">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>-16433440.50043685</v>
       </c>
       <c r="H461">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>-16422518.39863685</v>
       </c>
       <c r="H462">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>-16422518.39863685</v>
       </c>
       <c r="H463">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>-16097593.23233685</v>
       </c>
       <c r="H464">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>-16097593.23233685</v>
       </c>
       <c r="H465">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>-16294508.68203685</v>
       </c>
       <c r="H466">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>-16537512.35433685</v>
       </c>
       <c r="H467">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>-16200964.42293685</v>
       </c>
       <c r="H468">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>-16401740.53663685</v>
       </c>
       <c r="H469">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>-16401527.19343685</v>
       </c>
       <c r="H470">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>-16080773.98703685</v>
       </c>
       <c r="H471">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>-15962358.87703685</v>
       </c>
       <c r="H472">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>-15574756.14893685</v>
       </c>
       <c r="H473">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>-15328784.08153685</v>
       </c>
       <c r="H474">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>-15328784.08153685</v>
       </c>
       <c r="H475">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>-15187312.63153685</v>
       </c>
       <c r="H476">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>-15732287.99119461</v>
       </c>
       <c r="H477">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>-16112458.31329461</v>
       </c>
       <c r="H478">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>-16112958.31329461</v>
       </c>
       <c r="H479">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>-16112958.31329461</v>
       </c>
       <c r="H480">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>-16190754.77509461</v>
       </c>
       <c r="H481">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>-15859664.61649461</v>
       </c>
       <c r="H482">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>-15925397.79389461</v>
       </c>
       <c r="H483">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>-15925841.37019461</v>
       </c>
       <c r="H484">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>-15493629.81229461</v>
       </c>
       <c r="H485">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>-15491486.31499461</v>
       </c>
       <c r="H486">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>-15851282.0960946</v>
       </c>
       <c r="H487">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>-15851960.25569461</v>
       </c>
       <c r="H488">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>-15813715.21739461</v>
       </c>
       <c r="H489">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13964,7 +13964,7 @@
         <v>-14719304.83678599</v>
       </c>
       <c r="H522">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>-14753603.11778598</v>
       </c>
       <c r="H523">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -14016,7 +14016,7 @@
         <v>-14497989.00478598</v>
       </c>
       <c r="H524">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -18150,7 +18150,7 @@
         <v>-32906871.55780552</v>
       </c>
       <c r="H683">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="684" spans="1:8">
@@ -18176,7 +18176,7 @@
         <v>-32781147.48420552</v>
       </c>
       <c r="H684">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="685" spans="1:8">
@@ -18202,7 +18202,7 @@
         <v>-32952530.45940552</v>
       </c>
       <c r="H685">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="686" spans="1:8">
@@ -18228,7 +18228,7 @@
         <v>-32682008.70640552</v>
       </c>
       <c r="H686">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="687" spans="1:8">
@@ -18254,7 +18254,7 @@
         <v>-32816975.87920552</v>
       </c>
       <c r="H687">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="688" spans="1:8">
@@ -18280,7 +18280,7 @@
         <v>-33042076.66460552</v>
       </c>
       <c r="H688">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="689" spans="1:8">
@@ -18306,7 +18306,7 @@
         <v>-32898733.80410552</v>
       </c>
       <c r="H689">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="690" spans="1:8">
@@ -18332,7 +18332,7 @@
         <v>-32898733.80410552</v>
       </c>
       <c r="H690">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="691" spans="1:8">
@@ -18358,7 +18358,7 @@
         <v>-33075463.97230553</v>
       </c>
       <c r="H691">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="692" spans="1:8">
@@ -18384,7 +18384,7 @@
         <v>-33090295.36770552</v>
       </c>
       <c r="H692">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="693" spans="1:8">
@@ -18410,7 +18410,7 @@
         <v>-33320206.56790552</v>
       </c>
       <c r="H693">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="694" spans="1:8">
@@ -18436,7 +18436,7 @@
         <v>-33912312.81020552</v>
       </c>
       <c r="H694">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="695" spans="1:8">
@@ -18462,7 +18462,7 @@
         <v>-33912312.81020552</v>
       </c>
       <c r="H695">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="696" spans="1:8">
@@ -18488,7 +18488,7 @@
         <v>-34038034.88590552</v>
       </c>
       <c r="H696">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="697" spans="1:8">
@@ -18514,7 +18514,7 @@
         <v>-34194336.77590552</v>
       </c>
       <c r="H697">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="698" spans="1:8">
@@ -18540,7 +18540,7 @@
         <v>-34289714.51590552</v>
       </c>
       <c r="H698">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="699" spans="1:8">
@@ -18566,7 +18566,7 @@
         <v>-34492375.59600552</v>
       </c>
       <c r="H699">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="700" spans="1:8">
@@ -18592,7 +18592,7 @@
         <v>-34282396.02610552</v>
       </c>
       <c r="H700">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="701" spans="1:8">
@@ -18618,7 +18618,7 @@
         <v>-34637487.39910553</v>
       </c>
       <c r="H701">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="702" spans="1:8">
@@ -18644,7 +18644,7 @@
         <v>-34637707.56440552</v>
       </c>
       <c r="H702">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="703" spans="1:8">
@@ -18670,7 +18670,7 @@
         <v>-34637707.56440552</v>
       </c>
       <c r="H703">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="704" spans="1:8">
@@ -18696,7 +18696,7 @@
         <v>-34637707.56440552</v>
       </c>
       <c r="H704">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="705" spans="1:8">
@@ -18722,7 +18722,7 @@
         <v>-34851605.56750552</v>
       </c>
       <c r="H705">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="706" spans="1:8">
@@ -18748,7 +18748,7 @@
         <v>-34851605.56750552</v>
       </c>
       <c r="H706">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="707" spans="1:8">
@@ -18774,7 +18774,7 @@
         <v>-34612419.34710553</v>
       </c>
       <c r="H707">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="708" spans="1:8">
@@ -18800,7 +18800,7 @@
         <v>-34614880.67980552</v>
       </c>
       <c r="H708">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="709" spans="1:8">
@@ -18826,7 +18826,7 @@
         <v>-34614880.67980552</v>
       </c>
       <c r="H709">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="710" spans="1:8">
@@ -18852,7 +18852,7 @@
         <v>-34614880.67980552</v>
       </c>
       <c r="H710">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="711" spans="1:8">
@@ -18878,7 +18878,7 @@
         <v>-34967285.20950553</v>
       </c>
       <c r="H711">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="712" spans="1:8">
@@ -18904,7 +18904,7 @@
         <v>-34967212.20950553</v>
       </c>
       <c r="H712">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="713" spans="1:8">
@@ -18930,7 +18930,7 @@
         <v>-35308666.03940552</v>
       </c>
       <c r="H713">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="714" spans="1:8">
@@ -18956,7 +18956,7 @@
         <v>-35644251.89810552</v>
       </c>
       <c r="H714">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="715" spans="1:8">
@@ -18982,7 +18982,7 @@
         <v>-35354711.05200552</v>
       </c>
       <c r="H715">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="716" spans="1:8">
@@ -19814,7 +19814,7 @@
         <v>-36116304.219262</v>
       </c>
       <c r="H747">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="748" spans="1:8">
@@ -19866,7 +19866,7 @@
         <v>-36406483.828062</v>
       </c>
       <c r="H749">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="750" spans="1:8">
@@ -19892,7 +19892,7 @@
         <v>-36220901.534762</v>
       </c>
       <c r="H750">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="751" spans="1:8">
@@ -20074,7 +20074,7 @@
         <v>-37944080.47586199</v>
       </c>
       <c r="H757">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="758" spans="1:8">
@@ -20230,7 +20230,7 @@
         <v>-37728288.99816199</v>
       </c>
       <c r="H763">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="764" spans="1:8">
@@ -20256,7 +20256,7 @@
         <v>-37516496.83696198</v>
       </c>
       <c r="H764">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="765" spans="1:8">
@@ -20282,7 +20282,7 @@
         <v>-37516496.83696198</v>
       </c>
       <c r="H765">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="766" spans="1:8">
@@ -20308,7 +20308,7 @@
         <v>-37011101.79056198</v>
       </c>
       <c r="H766">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="767" spans="1:8">
@@ -20334,7 +20334,7 @@
         <v>-37010570.77416198</v>
       </c>
       <c r="H767">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="768" spans="1:8">
@@ -20360,7 +20360,7 @@
         <v>-36758272.58206198</v>
       </c>
       <c r="H768">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="769" spans="1:8">
@@ -20386,7 +20386,7 @@
         <v>-36758272.58206198</v>
       </c>
       <c r="H769">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="770" spans="1:8">
@@ -20412,7 +20412,7 @@
         <v>-36492107.91986198</v>
       </c>
       <c r="H770">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="771" spans="1:8">
@@ -20438,7 +20438,7 @@
         <v>-36218834.35946198</v>
       </c>
       <c r="H771">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="772" spans="1:8">
@@ -20464,7 +20464,7 @@
         <v>-36219888.54126198</v>
       </c>
       <c r="H772">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="773" spans="1:8">
@@ -20490,7 +20490,7 @@
         <v>-36219762.54126198</v>
       </c>
       <c r="H773">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="774" spans="1:8">
@@ -20516,7 +20516,7 @@
         <v>-36478883.55646197</v>
       </c>
       <c r="H774">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="775" spans="1:8">
@@ -20542,7 +20542,7 @@
         <v>-36521266.47376198</v>
       </c>
       <c r="H775">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="776" spans="1:8">
@@ -20594,7 +20594,7 @@
         <v>-36581269.98456197</v>
       </c>
       <c r="H777">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="778" spans="1:8">
@@ -20620,7 +20620,7 @@
         <v>-36599194.16326197</v>
       </c>
       <c r="H778">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="779" spans="1:8">
@@ -20646,7 +20646,7 @@
         <v>-36842861.33856197</v>
       </c>
       <c r="H779">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="780" spans="1:8">
@@ -25170,7 +25170,7 @@
         <v>-46663429.88334032</v>
       </c>
       <c r="H953">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="954" spans="1:8">
@@ -25196,7 +25196,7 @@
         <v>-46664004.37224032</v>
       </c>
       <c r="H954">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="955" spans="1:8">
@@ -25222,7 +25222,7 @@
         <v>-46705824.89424032</v>
       </c>
       <c r="H955">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="956" spans="1:8">
@@ -25508,7 +25508,7 @@
         <v>-44976056.4824723</v>
       </c>
       <c r="H966">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="967" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-15 XSR ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-15 XSR ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-4034999.026200001</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-3901322.4427</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-3909689.120000001</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-3920533.049200001</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-3930485.049200001</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-3930485.049200001</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-3930485.049200001</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-4258786.740600001</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-3985235.228100001</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-4302073.907000002</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-4533182.923600001</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-4532182.923600001</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-4746510.022600002</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-4455170.386800001</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-4208388.608900001</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-4207888.608900001</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-4453255.653100002</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-4453255.653100002</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-4716893.158800001</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-4717046.729600001</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-4956935.377400002</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-4956435.377400002</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-5202210.471200001</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-5036037.998900002</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-4724178.628500002</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-5373784.031600001</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-5617319.794800001</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-6288053.204200001</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-6281317.989400001</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-6595311.959500001</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-6812404.495800001</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-7169018.6109</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-6138914.5025</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-5887705.672100001</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-6645511.960600001</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-6895435.492500001</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-6698895.705200001</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-6904146.4889</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-7040022.0301</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-7614532.7246</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-7615046.1423</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-7745057.291200001</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-7338919.982700001</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-7338839.982700001</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-7646741.445600001</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-7818026.254600001</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-8162465.907100001</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-7919645.613300001</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-7917645.613300001</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-8262556.483400001</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-8030092.488500001</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-7870238.482100001</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-8117161.077000001</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-8116661.077000001</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-8386635.179500001</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-8654775.042000001</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-8455329.807000002</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-8455249.807000002</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-8934140.387100002</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-8735475.383100001</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-8971283.889900001</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-8971203.889900001</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-9127508.126800001</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-8944727.033300001</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-8612956.242800001</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-8333466.632800001</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-8334400.334000001</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-8704330.668000001</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-8787556.310500002</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-8821748.941500003</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-8821748.941500003</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-8978325.610600002</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-9307452.956200002</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-9484107.204800002</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-9484107.204800002</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-9501471.6404</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-9723599.441299999</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-9601631.612499999</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-9601631.612499999</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-10060796.2793</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-10060796.2793</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-10268584.4771</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-10226061.2338</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-10045809.1129</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-10240018.9371</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>-10233096.2602</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-10232096.2602</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-10592655.4255</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-10592544.4255</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-10801030.4715</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>-10800860.4715</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-10448507.5286</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-10780515.6975</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-11114931.3181</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-11124909.6454</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-11124909.6454</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>-11124909.6454</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-11131555.9394</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-11375976.209</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-11375976.209</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-11108300.4628</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-11216373.8739</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-11083750.6116</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-11083750.6116</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-11257310.5401</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-11495178.2502</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-11495178.2502</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-11508848.2141</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-11885509.3309</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>-20615145.78072824</v>
       </c>
       <c r="H423">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>-20593018.80812824</v>
       </c>
       <c r="H424">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>-20736959.10162824</v>
       </c>
       <c r="H425">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>-20365695.03222824</v>
       </c>
       <c r="H427">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>-20423810.52902824</v>
       </c>
       <c r="H428">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>-20083669.96792824</v>
       </c>
       <c r="H429">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>-20135299.25942824</v>
       </c>
       <c r="H430">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>-19783183.60592823</v>
       </c>
       <c r="H431">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>-19783183.60592823</v>
       </c>
       <c r="H432">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>-19783183.60592823</v>
       </c>
       <c r="H433">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>-19495688.59662823</v>
       </c>
       <c r="H434">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>-19328587.10782823</v>
       </c>
       <c r="H441">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>-18847587.34702823</v>
       </c>
       <c r="H443">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>-18845120.51822823</v>
       </c>
       <c r="H444">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>-19223720.72542823</v>
       </c>
       <c r="H445">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>-19139097.02632823</v>
       </c>
       <c r="H446">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>-17611603.74303685</v>
       </c>
       <c r="H447">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>-17607695.62843685</v>
       </c>
       <c r="H448">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>-17939360.33043685</v>
       </c>
       <c r="H449">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>-17670778.06353685</v>
       </c>
       <c r="H450">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>-17719451.45713685</v>
       </c>
       <c r="H451">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>-17532576.94963685</v>
       </c>
       <c r="H452">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>-17304891.57263685</v>
       </c>
       <c r="H453">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>-17305543.81113685</v>
       </c>
       <c r="H454">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>-16947680.83553685</v>
       </c>
       <c r="H455">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>-16741251.87843685</v>
       </c>
       <c r="H456">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>-16741427.53293685</v>
       </c>
       <c r="H457">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>-16434591.73893685</v>
       </c>
       <c r="H458">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>-16434591.73893685</v>
       </c>
       <c r="H459">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>-16434106.73893685</v>
       </c>
       <c r="H460">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>-16433440.50043685</v>
       </c>
       <c r="H461">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>-16422518.39863685</v>
       </c>
       <c r="H462">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>-16422518.39863685</v>
       </c>
       <c r="H463">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>-16097593.23233685</v>
       </c>
       <c r="H464">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>-16097593.23233685</v>
       </c>
       <c r="H465">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>-16294508.68203685</v>
       </c>
       <c r="H466">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>-16537512.35433685</v>
       </c>
       <c r="H467">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>-16200964.42293685</v>
       </c>
       <c r="H468">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>-16401740.53663685</v>
       </c>
       <c r="H469">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>-16401527.19343685</v>
       </c>
       <c r="H470">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>-16080773.98703685</v>
       </c>
       <c r="H471">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>-15962358.87703685</v>
       </c>
       <c r="H472">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>-15574756.14893685</v>
       </c>
       <c r="H473">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>-15328784.08153685</v>
       </c>
       <c r="H474">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>-15328784.08153685</v>
       </c>
       <c r="H475">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>-15187312.63153685</v>
       </c>
       <c r="H476">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>-15732287.99119461</v>
       </c>
       <c r="H477">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>-16112458.31329461</v>
       </c>
       <c r="H478">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>-16112958.31329461</v>
       </c>
       <c r="H479">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>-16112958.31329461</v>
       </c>
       <c r="H480">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>-16190754.77509461</v>
       </c>
       <c r="H481">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>-15859664.61649461</v>
       </c>
       <c r="H482">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>-15925397.79389461</v>
       </c>
       <c r="H483">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>-15925841.37019461</v>
       </c>
       <c r="H484">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>-15493629.81229461</v>
       </c>
       <c r="H485">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>-15491486.31499461</v>
       </c>
       <c r="H486">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>-15851282.0960946</v>
       </c>
       <c r="H487">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>-15851960.25569461</v>
       </c>
       <c r="H488">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>-15813715.21739461</v>
       </c>
       <c r="H489">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13964,7 +13964,7 @@
         <v>-14719304.83678599</v>
       </c>
       <c r="H522">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>-14753603.11778598</v>
       </c>
       <c r="H523">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -14016,7 +14016,7 @@
         <v>-14497989.00478598</v>
       </c>
       <c r="H524">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -18150,7 +18150,7 @@
         <v>-32906871.55780552</v>
       </c>
       <c r="H683">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="684" spans="1:8">
@@ -18176,7 +18176,7 @@
         <v>-32781147.48420552</v>
       </c>
       <c r="H684">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="685" spans="1:8">
@@ -18202,7 +18202,7 @@
         <v>-32952530.45940552</v>
       </c>
       <c r="H685">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="686" spans="1:8">
@@ -18228,7 +18228,7 @@
         <v>-32682008.70640552</v>
       </c>
       <c r="H686">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="687" spans="1:8">
@@ -18254,7 +18254,7 @@
         <v>-32816975.87920552</v>
       </c>
       <c r="H687">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="688" spans="1:8">
@@ -18280,7 +18280,7 @@
         <v>-33042076.66460552</v>
       </c>
       <c r="H688">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="689" spans="1:8">
@@ -18306,7 +18306,7 @@
         <v>-32898733.80410552</v>
       </c>
       <c r="H689">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="690" spans="1:8">
@@ -18332,7 +18332,7 @@
         <v>-32898733.80410552</v>
       </c>
       <c r="H690">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="691" spans="1:8">
@@ -18358,7 +18358,7 @@
         <v>-33075463.97230553</v>
       </c>
       <c r="H691">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="692" spans="1:8">
@@ -18384,7 +18384,7 @@
         <v>-33090295.36770552</v>
       </c>
       <c r="H692">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="693" spans="1:8">
@@ -18410,7 +18410,7 @@
         <v>-33320206.56790552</v>
       </c>
       <c r="H693">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="694" spans="1:8">
@@ -18436,7 +18436,7 @@
         <v>-33912312.81020552</v>
       </c>
       <c r="H694">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="695" spans="1:8">
@@ -18462,7 +18462,7 @@
         <v>-33912312.81020552</v>
       </c>
       <c r="H695">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="696" spans="1:8">
@@ -18488,7 +18488,7 @@
         <v>-34038034.88590552</v>
       </c>
       <c r="H696">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="697" spans="1:8">
@@ -18514,7 +18514,7 @@
         <v>-34194336.77590552</v>
       </c>
       <c r="H697">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="698" spans="1:8">
@@ -18540,7 +18540,7 @@
         <v>-34289714.51590552</v>
       </c>
       <c r="H698">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="699" spans="1:8">
@@ -18566,7 +18566,7 @@
         <v>-34492375.59600552</v>
       </c>
       <c r="H699">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="700" spans="1:8">
@@ -18592,7 +18592,7 @@
         <v>-34282396.02610552</v>
       </c>
       <c r="H700">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="701" spans="1:8">
@@ -18618,7 +18618,7 @@
         <v>-34637487.39910553</v>
       </c>
       <c r="H701">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="702" spans="1:8">
@@ -18644,7 +18644,7 @@
         <v>-34637707.56440552</v>
       </c>
       <c r="H702">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="703" spans="1:8">
@@ -18670,7 +18670,7 @@
         <v>-34637707.56440552</v>
       </c>
       <c r="H703">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="704" spans="1:8">
@@ -18696,7 +18696,7 @@
         <v>-34637707.56440552</v>
       </c>
       <c r="H704">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="705" spans="1:8">
@@ -18722,7 +18722,7 @@
         <v>-34851605.56750552</v>
       </c>
       <c r="H705">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="706" spans="1:8">
@@ -18748,7 +18748,7 @@
         <v>-34851605.56750552</v>
       </c>
       <c r="H706">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="707" spans="1:8">
@@ -18774,7 +18774,7 @@
         <v>-34612419.34710553</v>
       </c>
       <c r="H707">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="708" spans="1:8">
@@ -18800,7 +18800,7 @@
         <v>-34614880.67980552</v>
       </c>
       <c r="H708">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="709" spans="1:8">
@@ -18826,7 +18826,7 @@
         <v>-34614880.67980552</v>
       </c>
       <c r="H709">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="710" spans="1:8">
@@ -18852,7 +18852,7 @@
         <v>-34614880.67980552</v>
       </c>
       <c r="H710">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="711" spans="1:8">
@@ -18878,7 +18878,7 @@
         <v>-34967285.20950553</v>
       </c>
       <c r="H711">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="712" spans="1:8">
@@ -18904,7 +18904,7 @@
         <v>-34967212.20950553</v>
       </c>
       <c r="H712">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="713" spans="1:8">
@@ -18930,7 +18930,7 @@
         <v>-35308666.03940552</v>
       </c>
       <c r="H713">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="714" spans="1:8">
@@ -18956,7 +18956,7 @@
         <v>-35644251.89810552</v>
       </c>
       <c r="H714">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="715" spans="1:8">
@@ -18982,7 +18982,7 @@
         <v>-35354711.05200552</v>
       </c>
       <c r="H715">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="716" spans="1:8">
@@ -19814,7 +19814,7 @@
         <v>-36116304.219262</v>
       </c>
       <c r="H747">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="748" spans="1:8">
@@ -19866,7 +19866,7 @@
         <v>-36406483.828062</v>
       </c>
       <c r="H749">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="750" spans="1:8">
@@ -19892,7 +19892,7 @@
         <v>-36220901.534762</v>
       </c>
       <c r="H750">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="751" spans="1:8">
@@ -20074,7 +20074,7 @@
         <v>-37944080.47586199</v>
       </c>
       <c r="H757">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="758" spans="1:8">
@@ -20230,7 +20230,7 @@
         <v>-37728288.99816199</v>
       </c>
       <c r="H763">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="764" spans="1:8">
@@ -20256,7 +20256,7 @@
         <v>-37516496.83696198</v>
       </c>
       <c r="H764">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="765" spans="1:8">
@@ -20282,7 +20282,7 @@
         <v>-37516496.83696198</v>
       </c>
       <c r="H765">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="766" spans="1:8">
@@ -20308,7 +20308,7 @@
         <v>-37011101.79056198</v>
       </c>
       <c r="H766">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="767" spans="1:8">
@@ -20334,7 +20334,7 @@
         <v>-37010570.77416198</v>
       </c>
       <c r="H767">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="768" spans="1:8">
@@ -20360,7 +20360,7 @@
         <v>-36758272.58206198</v>
       </c>
       <c r="H768">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="769" spans="1:8">
@@ -20386,7 +20386,7 @@
         <v>-36758272.58206198</v>
       </c>
       <c r="H769">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="770" spans="1:8">
@@ -20412,7 +20412,7 @@
         <v>-36492107.91986198</v>
       </c>
       <c r="H770">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="771" spans="1:8">
@@ -20438,7 +20438,7 @@
         <v>-36218834.35946198</v>
       </c>
       <c r="H771">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="772" spans="1:8">
@@ -20464,7 +20464,7 @@
         <v>-36219888.54126198</v>
       </c>
       <c r="H772">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="773" spans="1:8">
@@ -20490,7 +20490,7 @@
         <v>-36219762.54126198</v>
       </c>
       <c r="H773">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="774" spans="1:8">
@@ -20516,7 +20516,7 @@
         <v>-36478883.55646197</v>
       </c>
       <c r="H774">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="775" spans="1:8">
@@ -20542,7 +20542,7 @@
         <v>-36521266.47376198</v>
       </c>
       <c r="H775">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="776" spans="1:8">
@@ -20594,7 +20594,7 @@
         <v>-36581269.98456197</v>
       </c>
       <c r="H777">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="778" spans="1:8">
@@ -20620,7 +20620,7 @@
         <v>-36599194.16326197</v>
       </c>
       <c r="H778">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="779" spans="1:8">
@@ -20646,7 +20646,7 @@
         <v>-36842861.33856197</v>
       </c>
       <c r="H779">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="780" spans="1:8">
@@ -25170,7 +25170,7 @@
         <v>-46663429.88334032</v>
       </c>
       <c r="H953">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="954" spans="1:8">
@@ -25196,7 +25196,7 @@
         <v>-46664004.37224032</v>
       </c>
       <c r="H954">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="955" spans="1:8">
@@ -25222,7 +25222,7 @@
         <v>-46705824.89424032</v>
       </c>
       <c r="H955">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="956" spans="1:8">
@@ -25248,7 +25248,7 @@
         <v>-46705824.89424032</v>
       </c>
       <c r="H956">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="957" spans="1:8">
@@ -25508,7 +25508,7 @@
         <v>-44976056.4824723</v>
       </c>
       <c r="H966">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="967" spans="1:8">
@@ -25534,7 +25534,7 @@
         <v>-45410012.3189723</v>
       </c>
       <c r="H967">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="968" spans="1:8">
@@ -26054,7 +26054,7 @@
         <v>-47324812.30847229</v>
       </c>
       <c r="H987">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="988" spans="1:8">
@@ -26080,7 +26080,7 @@
         <v>-47324812.30847229</v>
       </c>
       <c r="H988">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="989" spans="1:8">
@@ -26106,7 +26106,7 @@
         <v>-47386220.31867229</v>
       </c>
       <c r="H989">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="990" spans="1:8">
@@ -26132,7 +26132,7 @@
         <v>-47386220.31867229</v>
       </c>
       <c r="H990">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="991" spans="1:8">
@@ -26158,7 +26158,7 @@
         <v>-47147323.75547229</v>
       </c>
       <c r="H991">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="992" spans="1:8">
@@ -26184,7 +26184,7 @@
         <v>-47436938.94637229</v>
       </c>
       <c r="H992">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="993" spans="1:8">
@@ -26210,7 +26210,7 @@
         <v>-47436257.36577229</v>
       </c>
       <c r="H993">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="994" spans="1:8">
@@ -26236,7 +26236,7 @@
         <v>-47631172.16637229</v>
       </c>
       <c r="H994">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="995" spans="1:8">
@@ -26262,7 +26262,7 @@
         <v>-47367597.62787229</v>
       </c>
       <c r="H995">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="996" spans="1:8">
@@ -26288,7 +26288,7 @@
         <v>-47371563.60337229</v>
       </c>
       <c r="H996">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="997" spans="1:8">
@@ -26314,7 +26314,7 @@
         <v>-47519771.18857229</v>
       </c>
       <c r="H997">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
